--- a/Копирование_отгрузки/Временная_папка/Отгрузка для ОТК УК_2025.xlsx
+++ b/Копирование_отгрузки/Временная_папка/Отгрузка для ОТК УК_2025.xlsx
@@ -350,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -403,6 +403,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -521,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -652,38 +659,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -694,6 +703,13 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,7 +1019,7 @@
       <selection activeCell="V83" sqref="V83"/>
       <selection pane="topRight" activeCell="V83" sqref="V83"/>
       <selection pane="bottomLeft" activeCell="V83" sqref="V83"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1091,43 @@
       <c r="H2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="42" t="s">
         <v>86</v>
       </c>
       <c r="V2" s="6" t="s">
@@ -1125,34 +1141,30 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22">
-        <v>11</v>
-      </c>
+      <c r="C3" s="23"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
-      <c r="V3" s="28">
-        <v>25</v>
-      </c>
-      <c r="X3" s="49" t="s">
+      <c r="V3" s="28"/>
+      <c r="X3" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="55">
         <v>3</v>
       </c>
     </row>
@@ -1164,16 +1176,14 @@
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="22">
-        <v>12</v>
-      </c>
+      <c r="C4" s="23"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1185,13 +1195,11 @@
       <c r="S4" s="28"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="28">
-        <v>26</v>
-      </c>
-      <c r="X4" s="49" t="s">
+      <c r="V4" s="28"/>
+      <c r="X4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="55">
         <v>4</v>
       </c>
     </row>
@@ -1203,16 +1211,14 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="22">
-        <v>13</v>
-      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -1224,13 +1230,11 @@
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="28">
-        <v>27</v>
-      </c>
-      <c r="X5" s="49" t="s">
+      <c r="V5" s="28"/>
+      <c r="X5" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="55">
         <v>5</v>
       </c>
     </row>
@@ -1242,16 +1246,14 @@
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="22">
-        <v>14</v>
-      </c>
+      <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -1263,13 +1265,11 @@
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
       <c r="U6" s="28"/>
-      <c r="V6" s="28">
-        <v>28</v>
-      </c>
-      <c r="X6" s="49" t="s">
+      <c r="V6" s="28"/>
+      <c r="X6" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="55">
         <v>6</v>
       </c>
     </row>
@@ -1281,16 +1281,14 @@
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="22">
-        <v>15</v>
-      </c>
+      <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -1302,13 +1300,11 @@
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
-      <c r="V7" s="28">
-        <v>29</v>
-      </c>
-      <c r="X7" s="49" t="s">
+      <c r="V7" s="28"/>
+      <c r="X7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="55">
         <v>7</v>
       </c>
     </row>
@@ -1320,16 +1316,14 @@
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="22">
-        <v>16</v>
-      </c>
+      <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -1341,13 +1335,11 @@
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
-      <c r="V8" s="28">
-        <v>30</v>
-      </c>
-      <c r="X8" s="49" t="s">
+      <c r="V8" s="28"/>
+      <c r="X8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="55">
         <v>8</v>
       </c>
     </row>
@@ -1359,16 +1351,14 @@
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="22">
-        <v>17</v>
-      </c>
+      <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1380,13 +1370,11 @@
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="28">
-        <v>31</v>
-      </c>
-      <c r="X9" s="49" t="s">
+      <c r="V9" s="28"/>
+      <c r="X9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="55">
         <v>9</v>
       </c>
     </row>
@@ -1398,16 +1386,14 @@
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="22">
-        <v>18</v>
-      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -1419,13 +1405,11 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="28">
-        <v>32</v>
-      </c>
-      <c r="X10" s="49" t="s">
+      <c r="V10" s="28"/>
+      <c r="X10" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="55">
         <v>10</v>
       </c>
     </row>
@@ -1437,16 +1421,14 @@
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="22">
-        <v>19</v>
-      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -1458,13 +1440,11 @@
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
-      <c r="V11" s="28">
-        <v>33</v>
-      </c>
-      <c r="X11" s="50" t="s">
+      <c r="V11" s="28"/>
+      <c r="X11" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="55">
         <v>11</v>
       </c>
     </row>
@@ -1475,34 +1455,30 @@
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="22">
-        <v>20</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="28">
-        <v>34</v>
-      </c>
-      <c r="X12" s="50" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="X12" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="55">
         <v>12</v>
       </c>
     </row>
@@ -1514,34 +1490,30 @@
       <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="22">
-        <v>21</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="28">
-        <v>35</v>
-      </c>
-      <c r="X13" s="50" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="X13" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="55">
         <v>13</v>
       </c>
     </row>
@@ -1550,37 +1522,33 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="22">
-        <v>22</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="28">
-        <v>36</v>
-      </c>
-      <c r="X14" s="50" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="X14" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="55">
         <v>14</v>
       </c>
     </row>
@@ -1589,37 +1557,33 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="22">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="28">
-        <v>37</v>
-      </c>
-      <c r="X15" s="50" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="X15" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="55">
         <v>15</v>
       </c>
     </row>
@@ -1627,19 +1591,17 @@
       <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="22">
-        <v>24</v>
-      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -1651,19 +1613,17 @@
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
-      <c r="V16" s="28">
-        <v>38</v>
-      </c>
-      <c r="X16" s="50" t="s">
+      <c r="V16" s="28"/>
+      <c r="X16" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="55">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="31"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -1684,16 +1644,16 @@
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
-      <c r="X17" s="50" t="s">
+      <c r="X17" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="55">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="31"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -1714,16 +1674,16 @@
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
-      <c r="X18" s="50" t="s">
+      <c r="X18" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="55">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="31"/>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
@@ -1744,10 +1704,10 @@
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
-      <c r="X19" s="50" t="s">
+      <c r="X19" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="55">
         <v>19</v>
       </c>
     </row>
@@ -1774,10 +1734,10 @@
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
-      <c r="X20" s="50" t="s">
+      <c r="X20" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="55">
         <v>20</v>
       </c>
     </row>
@@ -1804,10 +1764,10 @@
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
-      <c r="X21" s="50" t="s">
+      <c r="X21" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="55">
         <v>21</v>
       </c>
     </row>
@@ -1834,6 +1794,8 @@
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -1842,34 +1804,30 @@
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30">
-        <v>21</v>
-      </c>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30">
-        <v>23</v>
-      </c>
-      <c r="X23" s="50" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="X23" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="55">
         <v>22</v>
       </c>
     </row>
@@ -1881,30 +1839,26 @@
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22">
-        <v>39</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30">
-        <v>24</v>
-      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -1914,30 +1868,26 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="22">
-        <v>40</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30">
-        <v>25</v>
-      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -1947,28 +1897,26 @@
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30">
-        <v>26</v>
-      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -1978,34 +1926,26 @@
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22">
-        <v>41</v>
-      </c>
-      <c r="E27" s="24">
-        <v>43</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27">
-        <v>20</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30">
-        <v>27</v>
-      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -2015,36 +1955,26 @@
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22">
-        <v>42</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27">
-        <v>60</v>
-      </c>
-      <c r="K28" s="30">
-        <v>200</v>
-      </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30">
-        <v>50</v>
-      </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30">
-        <v>28</v>
-      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -2054,30 +1984,26 @@
       <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="29">
-        <v>44</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30">
-        <v>29</v>
-      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -2087,30 +2013,26 @@
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30">
-        <v>20</v>
-      </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30">
-        <v>30</v>
-      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2120,30 +2042,26 @@
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30">
-        <v>36</v>
-      </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30">
-        <v>31</v>
-      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -2153,28 +2071,26 @@
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30">
-        <v>32</v>
-      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
     </row>
     <row r="33" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -2183,28 +2099,26 @@
       <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30">
-        <v>33</v>
-      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
     </row>
     <row r="34" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -2213,28 +2127,26 @@
       <c r="B34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30">
-        <v>34</v>
-      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
     </row>
     <row r="35" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
@@ -2243,32 +2155,26 @@
       <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30">
-        <v>100</v>
-      </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30">
-        <v>5</v>
-      </c>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30">
-        <v>35</v>
-      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
     </row>
     <row r="36" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -2369,9 +2275,7 @@
     <row r="40" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="22">
-        <v>42</v>
-      </c>
+      <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="24"/>
       <c r="F40" s="29"/>
@@ -2390,9 +2294,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
-      <c r="V40" s="30">
-        <v>40</v>
-      </c>
+      <c r="V40" s="30"/>
     </row>
     <row r="41" spans="1:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -2425,30 +2327,26 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="22">
-        <v>25</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30">
-        <v>41</v>
-      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
@@ -2458,28 +2356,26 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30">
-        <v>42</v>
-      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
@@ -2489,28 +2385,26 @@
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30">
-        <v>43</v>
-      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
@@ -2520,28 +2414,26 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30">
-        <v>44</v>
-      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
@@ -2551,28 +2443,26 @@
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30">
-        <v>45</v>
-      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
     </row>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
@@ -2582,30 +2472,26 @@
       <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30">
-        <v>37</v>
-      </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30">
-        <v>46</v>
-      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
     </row>
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
@@ -2615,30 +2501,26 @@
       <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30">
-        <v>38</v>
-      </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30">
-        <v>47</v>
-      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
     </row>
     <row r="49" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
@@ -2648,30 +2530,26 @@
       <c r="B49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30">
-        <v>39</v>
-      </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30">
-        <v>48</v>
-      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
     </row>
     <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
@@ -2681,28 +2559,26 @@
       <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30">
-        <v>49</v>
-      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
@@ -2712,28 +2588,26 @@
       <c r="B51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30">
-        <v>50</v>
-      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
     </row>
     <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
@@ -2743,28 +2617,26 @@
       <c r="B52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30">
-        <v>51</v>
-      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
     </row>
     <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
@@ -2774,28 +2646,26 @@
       <c r="B53" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30">
-        <v>52</v>
-      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
@@ -2804,28 +2674,26 @@
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30">
-        <v>53</v>
-      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
@@ -2926,9 +2794,7 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="22">
-        <v>26</v>
-      </c>
+      <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="24"/>
       <c r="F59" s="29"/>
@@ -2980,16 +2846,14 @@
       <c r="B61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="22">
-        <v>43</v>
-      </c>
+      <c r="C61" s="23"/>
       <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
       <c r="K61" s="28"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
@@ -3001,9 +2865,7 @@
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
       <c r="U61" s="28"/>
-      <c r="V61" s="28">
-        <v>57</v>
-      </c>
+      <c r="V61" s="28"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
@@ -3013,16 +2875,14 @@
       <c r="B62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="22">
-        <v>32</v>
-      </c>
+      <c r="C62" s="23"/>
       <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
       <c r="K62" s="28"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
@@ -3034,9 +2894,7 @@
       <c r="S62" s="28"/>
       <c r="T62" s="28"/>
       <c r="U62" s="28"/>
-      <c r="V62" s="28">
-        <v>58</v>
-      </c>
+      <c r="V62" s="28"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
@@ -3046,14 +2904,14 @@
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
@@ -3065,9 +2923,7 @@
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
       <c r="U63" s="28"/>
-      <c r="V63" s="28">
-        <v>59</v>
-      </c>
+      <c r="V63" s="28"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
@@ -3077,14 +2933,14 @@
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
@@ -3096,9 +2952,7 @@
       <c r="S64" s="28"/>
       <c r="T64" s="28"/>
       <c r="U64" s="28"/>
-      <c r="V64" s="28">
-        <v>60</v>
-      </c>
+      <c r="V64" s="28"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
@@ -3108,14 +2962,14 @@
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -3127,9 +2981,7 @@
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
       <c r="U65" s="28"/>
-      <c r="V65" s="28">
-        <v>61</v>
-      </c>
+      <c r="V65" s="28"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
@@ -3139,30 +2991,26 @@
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
       <c r="K66" s="28"/>
       <c r="L66" s="28"/>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
-      <c r="O66" s="28">
-        <v>34</v>
-      </c>
+      <c r="O66" s="28"/>
       <c r="P66" s="28"/>
       <c r="Q66" s="28"/>
       <c r="R66" s="28"/>
       <c r="S66" s="28"/>
       <c r="T66" s="28"/>
       <c r="U66" s="28"/>
-      <c r="V66" s="28">
-        <v>62</v>
-      </c>
+      <c r="V66" s="28"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
@@ -3172,19 +3020,17 @@
       <c r="B67" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="22"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
-      <c r="M67" s="28">
-        <v>55</v>
-      </c>
+      <c r="M67" s="28"/>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
@@ -3193,9 +3039,7 @@
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
-      <c r="V67" s="28">
-        <v>63</v>
-      </c>
+      <c r="V67" s="28"/>
     </row>
     <row r="68" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
@@ -3205,30 +3049,26 @@
       <c r="B68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30">
-        <v>56</v>
-      </c>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="28">
-        <v>64</v>
-      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
     </row>
     <row r="69" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
@@ -3238,28 +3078,26 @@
       <c r="B69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="28">
-        <v>65</v>
-      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
     </row>
     <row r="70" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
@@ -3269,30 +3107,26 @@
       <c r="B70" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="27">
-        <v>50</v>
-      </c>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="28">
-        <v>66</v>
-      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
     </row>
     <row r="71" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
@@ -3464,9 +3298,7 @@
       <c r="S77" s="28"/>
       <c r="T77" s="28"/>
       <c r="U77" s="28"/>
-      <c r="V77" s="28">
-        <v>67</v>
-      </c>
+      <c r="V77" s="28"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
@@ -3495,9 +3327,7 @@
       <c r="S78" s="28"/>
       <c r="T78" s="28"/>
       <c r="U78" s="28"/>
-      <c r="V78" s="28">
-        <v>68</v>
-      </c>
+      <c r="V78" s="28"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
@@ -3526,9 +3356,7 @@
       <c r="S79" s="28"/>
       <c r="T79" s="28"/>
       <c r="U79" s="28"/>
-      <c r="V79" s="28">
-        <v>69</v>
-      </c>
+      <c r="V79" s="28"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
@@ -3557,9 +3385,7 @@
       <c r="S80" s="28"/>
       <c r="T80" s="28"/>
       <c r="U80" s="28"/>
-      <c r="V80" s="28">
-        <v>70</v>
-      </c>
+      <c r="V80" s="28"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
@@ -3665,30 +3491,26 @@
       <c r="B85" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="22">
-        <v>40</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30">
-        <v>71</v>
-      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="28"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
@@ -3698,30 +3520,26 @@
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="22">
-        <v>41</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="30">
-        <v>72</v>
-      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
@@ -3731,30 +3549,26 @@
       <c r="B87" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="22">
-        <v>42</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="30">
-        <v>73</v>
-      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
@@ -3764,30 +3578,26 @@
       <c r="B88" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="22">
-        <v>43</v>
-      </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="30">
-        <v>74</v>
-      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
@@ -3797,30 +3607,26 @@
       <c r="B89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="22">
-        <v>44</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30">
-        <v>75</v>
-      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
@@ -3830,30 +3636,26 @@
       <c r="B90" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="22">
-        <v>45</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="30"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="30">
-        <v>76</v>
-      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="28"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="28"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
@@ -3863,30 +3665,26 @@
       <c r="B91" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="22">
-        <v>46</v>
-      </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30">
-        <v>77</v>
-      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
@@ -3896,30 +3694,26 @@
       <c r="B92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="22">
-        <v>47</v>
-      </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30">
-        <v>78</v>
-      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="28"/>
+      <c r="T92" s="28"/>
+      <c r="U92" s="28"/>
+      <c r="V92" s="28"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
@@ -3929,16 +3723,14 @@
       <c r="B93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="22"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
+      <c r="E93" s="46"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="27">
-        <v>45</v>
-      </c>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
       <c r="K93" s="28"/>
       <c r="L93" s="28"/>
       <c r="M93" s="28"/>
@@ -3950,9 +3742,7 @@
       <c r="S93" s="28"/>
       <c r="T93" s="28"/>
       <c r="U93" s="28"/>
-      <c r="V93" s="30">
-        <v>80</v>
-      </c>
+      <c r="V93" s="28"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
@@ -4345,16 +4135,14 @@
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="22">
-        <v>46</v>
-      </c>
+      <c r="C110" s="23"/>
       <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
+      <c r="E110" s="46"/>
       <c r="F110" s="25"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
       <c r="K110" s="28"/>
       <c r="L110" s="28"/>
       <c r="M110" s="28"/>
@@ -4366,9 +4154,7 @@
       <c r="S110" s="28"/>
       <c r="T110" s="28"/>
       <c r="U110" s="28"/>
-      <c r="V110" s="28">
-        <v>49</v>
-      </c>
+      <c r="V110" s="28"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
@@ -4378,16 +4164,14 @@
       <c r="B111" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="22">
-        <v>47</v>
-      </c>
+      <c r="C111" s="23"/>
       <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
+      <c r="E111" s="46"/>
       <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="48"/>
+      <c r="J111" s="48"/>
       <c r="K111" s="28"/>
       <c r="L111" s="28"/>
       <c r="M111" s="28"/>
@@ -4399,9 +4183,7 @@
       <c r="S111" s="28"/>
       <c r="T111" s="28"/>
       <c r="U111" s="28"/>
-      <c r="V111" s="28">
-        <v>50</v>
-      </c>
+      <c r="V111" s="28"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
@@ -4411,16 +4193,14 @@
       <c r="B112" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="22">
-        <v>48</v>
-      </c>
+      <c r="C112" s="23"/>
       <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
+      <c r="E112" s="46"/>
       <c r="F112" s="25"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
       <c r="K112" s="28"/>
       <c r="L112" s="28"/>
       <c r="M112" s="28"/>
@@ -4432,9 +4212,7 @@
       <c r="S112" s="28"/>
       <c r="T112" s="28"/>
       <c r="U112" s="28"/>
-      <c r="V112" s="28">
-        <v>52</v>
-      </c>
+      <c r="V112" s="28"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
@@ -4530,29 +4308,29 @@
       <c r="U117" s="4"/>
       <c r="V117" s="17">
         <f>SUM(V3:V96)</f>
-        <v>3034</v>
+        <v>0</v>
       </c>
       <c r="W117" s="52">
         <f>SUM(C3:U96)+SUM(V3:V96)</f>
-        <v>4910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="4">
         <f>SUM(C3:C96)</f>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="D118" s="4">
         <f>SUM(D3:D96)</f>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E118" s="4">
         <f>SUM(E3:E96)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F118" s="4">
         <f>SUM(F3:F96)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" ref="G118:U118" si="5">SUM(G3:G96)</f>
@@ -4560,7 +4338,7 @@
       </c>
       <c r="H118" s="4">
         <f>SUM(H3:H96)</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" si="5"/>
@@ -4568,27 +4346,27 @@
       </c>
       <c r="J118" s="4">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K118" s="4">
         <f>SUM(K3:K96)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L118" s="4">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M118" s="4">
         <f t="shared" si="5"/>
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="N118" s="4">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O118" s="4">
         <f t="shared" si="5"/>
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="P118" s="4">
         <f t="shared" si="5"/>
@@ -4604,11 +4382,11 @@
       </c>
       <c r="S118" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T118" s="4">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U118" s="4">
         <f t="shared" si="5"/>
@@ -4616,14 +4394,14 @@
       </c>
       <c r="V118" s="17">
         <f>SUM(C118:U118)</f>
-        <v>1876</v>
+        <v>0</v>
       </c>
       <c r="W118" s="53"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V119" s="16">
         <f>SUM(C3:U96)</f>
-        <v>1876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Копирование_отгрузки/Временная_папка/Отгрузка для ОТК УК_2025.xlsx
+++ b/Копирование_отгрузки/Временная_папка/Отгрузка для ОТК УК_2025.xlsx
@@ -694,6 +694,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -703,13 +710,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1019,7 @@
       <selection activeCell="V83" sqref="V83"/>
       <selection pane="topRight" activeCell="V83" sqref="V83"/>
       <selection pane="bottomLeft" activeCell="V83" sqref="V83"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,30 +1041,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
     </row>
     <row r="2" spans="1:25" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1141,7 +1141,9 @@
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="23">
+        <v>100</v>
+      </c>
       <c r="D3" s="23"/>
       <c r="E3" s="46"/>
       <c r="F3" s="25"/>
@@ -1160,11 +1162,13 @@
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="X3" s="54" t="s">
+      <c r="V3" s="28">
+        <v>10</v>
+      </c>
+      <c r="X3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" s="55">
+      <c r="Y3" s="52">
         <v>3</v>
       </c>
     </row>
@@ -1176,7 +1180,9 @@
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="23">
+        <v>150</v>
+      </c>
       <c r="D4" s="23"/>
       <c r="E4" s="46"/>
       <c r="F4" s="25"/>
@@ -1195,11 +1201,13 @@
       <c r="S4" s="28"/>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="X4" s="54" t="s">
+      <c r="V4" s="28">
+        <v>20</v>
+      </c>
+      <c r="X4" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="Y4" s="55">
+      <c r="Y4" s="52">
         <v>4</v>
       </c>
     </row>
@@ -1211,7 +1219,9 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="23">
+        <v>200</v>
+      </c>
       <c r="D5" s="23"/>
       <c r="E5" s="46"/>
       <c r="F5" s="25"/>
@@ -1230,11 +1240,13 @@
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="X5" s="54" t="s">
+      <c r="V5" s="28">
+        <v>30</v>
+      </c>
+      <c r="X5" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" s="55">
+      <c r="Y5" s="52">
         <v>5</v>
       </c>
     </row>
@@ -1246,7 +1258,9 @@
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="23">
+        <v>250</v>
+      </c>
       <c r="D6" s="23"/>
       <c r="E6" s="46"/>
       <c r="F6" s="25"/>
@@ -1265,11 +1279,13 @@
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
       <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="X6" s="54" t="s">
+      <c r="V6" s="28">
+        <v>40</v>
+      </c>
+      <c r="X6" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="55">
+      <c r="Y6" s="52">
         <v>6</v>
       </c>
     </row>
@@ -1281,7 +1297,9 @@
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="23">
+        <v>300</v>
+      </c>
       <c r="D7" s="23"/>
       <c r="E7" s="46"/>
       <c r="F7" s="25"/>
@@ -1300,11 +1318,13 @@
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="X7" s="54" t="s">
+      <c r="V7" s="28">
+        <v>50</v>
+      </c>
+      <c r="X7" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="55">
+      <c r="Y7" s="52">
         <v>7</v>
       </c>
     </row>
@@ -1316,7 +1336,9 @@
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="23">
+        <v>450</v>
+      </c>
       <c r="D8" s="23"/>
       <c r="E8" s="46"/>
       <c r="F8" s="25"/>
@@ -1335,11 +1357,13 @@
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="X8" s="54" t="s">
+      <c r="V8" s="28">
+        <v>60</v>
+      </c>
+      <c r="X8" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="Y8" s="55">
+      <c r="Y8" s="52">
         <v>8</v>
       </c>
     </row>
@@ -1351,7 +1375,9 @@
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23">
+        <v>500</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="46"/>
       <c r="F9" s="25"/>
@@ -1370,11 +1396,13 @@
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="X9" s="54" t="s">
+      <c r="V9" s="28">
+        <v>70</v>
+      </c>
+      <c r="X9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" s="55">
+      <c r="Y9" s="52">
         <v>9</v>
       </c>
     </row>
@@ -1386,7 +1414,9 @@
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23">
+        <v>600</v>
+      </c>
       <c r="D10" s="23"/>
       <c r="E10" s="46"/>
       <c r="F10" s="25"/>
@@ -1405,11 +1435,13 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="X10" s="54" t="s">
+      <c r="V10" s="28">
+        <v>80</v>
+      </c>
+      <c r="X10" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="Y10" s="55">
+      <c r="Y10" s="52">
         <v>10</v>
       </c>
     </row>
@@ -1421,7 +1453,9 @@
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="23">
+        <v>700</v>
+      </c>
       <c r="D11" s="23"/>
       <c r="E11" s="46"/>
       <c r="F11" s="25"/>
@@ -1440,11 +1474,13 @@
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="X11" s="56" t="s">
+      <c r="V11" s="28">
+        <v>90</v>
+      </c>
+      <c r="X11" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="Y11" s="55">
+      <c r="Y11" s="52">
         <v>11</v>
       </c>
     </row>
@@ -1474,11 +1510,13 @@
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="X12" s="56" t="s">
+      <c r="V12" s="28">
+        <v>100</v>
+      </c>
+      <c r="X12" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="55">
+      <c r="Y12" s="52">
         <v>12</v>
       </c>
     </row>
@@ -1510,10 +1548,10 @@
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
-      <c r="X13" s="56" t="s">
+      <c r="X13" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="Y13" s="55">
+      <c r="Y13" s="52">
         <v>13</v>
       </c>
     </row>
@@ -1545,10 +1583,10 @@
       <c r="T14" s="28"/>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
-      <c r="X14" s="56" t="s">
+      <c r="X14" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="Y14" s="52">
         <v>14</v>
       </c>
     </row>
@@ -1580,10 +1618,10 @@
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
-      <c r="X15" s="56" t="s">
+      <c r="X15" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="Y15" s="55">
+      <c r="Y15" s="52">
         <v>15</v>
       </c>
     </row>
@@ -1614,10 +1652,10 @@
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
-      <c r="X16" s="56" t="s">
+      <c r="X16" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="Y16" s="55">
+      <c r="Y16" s="52">
         <v>16</v>
       </c>
     </row>
@@ -1644,10 +1682,10 @@
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
-      <c r="X17" s="56" t="s">
+      <c r="X17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="Y17" s="55">
+      <c r="Y17" s="52">
         <v>17</v>
       </c>
     </row>
@@ -1674,10 +1712,10 @@
       <c r="T18" s="28"/>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
-      <c r="X18" s="56" t="s">
+      <c r="X18" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="Y18" s="55">
+      <c r="Y18" s="52">
         <v>18</v>
       </c>
     </row>
@@ -1704,10 +1742,10 @@
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
-      <c r="X19" s="56" t="s">
+      <c r="X19" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Y19" s="55">
+      <c r="Y19" s="52">
         <v>19</v>
       </c>
     </row>
@@ -1734,10 +1772,10 @@
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
-      <c r="X20" s="56" t="s">
+      <c r="X20" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Y20" s="55">
+      <c r="Y20" s="52">
         <v>20</v>
       </c>
     </row>
@@ -1764,10 +1802,10 @@
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
-      <c r="X21" s="56" t="s">
+      <c r="X21" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="Y21" s="55">
+      <c r="Y21" s="52">
         <v>21</v>
       </c>
     </row>
@@ -1794,8 +1832,8 @@
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -1824,10 +1862,10 @@
       <c r="T23" s="28"/>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
-      <c r="X23" s="56" t="s">
+      <c r="X23" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="Y23" s="55">
+      <c r="Y23" s="52">
         <v>22</v>
       </c>
     </row>
@@ -1839,7 +1877,9 @@
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="23">
+        <v>600</v>
+      </c>
       <c r="D24" s="23"/>
       <c r="E24" s="46"/>
       <c r="F24" s="25"/>
@@ -1858,7 +1898,9 @@
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
       <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
+      <c r="V24" s="28">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -1887,7 +1929,9 @@
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
       <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
+      <c r="V25" s="28">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -1916,7 +1960,9 @@
       <c r="S26" s="28"/>
       <c r="T26" s="28"/>
       <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
+      <c r="V26" s="28">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -1928,7 +1974,9 @@
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="46"/>
+      <c r="E27" s="46">
+        <v>200</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="47"/>
       <c r="H27" s="48"/>
@@ -1945,7 +1993,9 @@
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
       <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
+      <c r="V27" s="28">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -1974,7 +2024,9 @@
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
       <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
+      <c r="V28" s="28">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -1994,7 +2046,9 @@
       <c r="J29" s="48"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="28">
+        <v>13</v>
+      </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
@@ -2003,7 +2057,9 @@
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
       <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
+      <c r="V29" s="28">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -2022,7 +2078,9 @@
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+      <c r="L30" s="28">
+        <v>50</v>
+      </c>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
@@ -2032,7 +2090,9 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
+      <c r="V30" s="28">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2061,7 +2121,9 @@
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
       <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
+      <c r="V31" s="28">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -2090,7 +2152,9 @@
       <c r="S32" s="28"/>
       <c r="T32" s="28"/>
       <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
+      <c r="V32" s="28">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
@@ -2109,7 +2173,9 @@
       <c r="J33" s="48"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="M33" s="28">
+        <v>50</v>
+      </c>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
@@ -2118,7 +2184,9 @@
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
       <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
+      <c r="V33" s="28">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -2136,7 +2204,9 @@
       <c r="I34" s="48"/>
       <c r="J34" s="48"/>
       <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="L34" s="28">
+        <v>20</v>
+      </c>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
@@ -2146,7 +2216,9 @@
       <c r="S34" s="28"/>
       <c r="T34" s="28"/>
       <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
+      <c r="V34" s="28">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
@@ -2167,14 +2239,18 @@
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
+      <c r="O35" s="28">
+        <v>120</v>
+      </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="28"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
       <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
+      <c r="V35" s="28">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -2327,7 +2403,9 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="23">
+        <v>20</v>
+      </c>
       <c r="D42" s="23"/>
       <c r="E42" s="46"/>
       <c r="F42" s="25"/>
@@ -2356,7 +2434,9 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="23">
+        <v>30</v>
+      </c>
       <c r="D43" s="23"/>
       <c r="E43" s="46"/>
       <c r="F43" s="25"/>
@@ -2385,7 +2465,9 @@
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="23">
+        <v>40</v>
+      </c>
       <c r="D44" s="23"/>
       <c r="E44" s="46"/>
       <c r="F44" s="25"/>
@@ -2414,7 +2496,9 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="23">
+        <v>50</v>
+      </c>
       <c r="D45" s="23"/>
       <c r="E45" s="46"/>
       <c r="F45" s="25"/>
@@ -2443,7 +2527,9 @@
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="23">
+        <v>60</v>
+      </c>
       <c r="D46" s="23"/>
       <c r="E46" s="46"/>
       <c r="F46" s="25"/>
@@ -2482,7 +2568,9 @@
       <c r="J47" s="48"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
+      <c r="M47" s="28">
+        <v>70</v>
+      </c>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
@@ -2511,7 +2599,9 @@
       <c r="J48" s="48"/>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
+      <c r="M48" s="28">
+        <v>80</v>
+      </c>
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
@@ -2540,7 +2630,9 @@
       <c r="J49" s="48"/>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
+      <c r="M49" s="28">
+        <v>90</v>
+      </c>
       <c r="N49" s="28"/>
       <c r="O49" s="28"/>
       <c r="P49" s="28"/>
@@ -2569,7 +2661,9 @@
       <c r="J50" s="48"/>
       <c r="K50" s="28"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
+      <c r="M50" s="28">
+        <v>100</v>
+      </c>
       <c r="N50" s="28"/>
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
@@ -2627,7 +2721,9 @@
       <c r="J52" s="48"/>
       <c r="K52" s="28"/>
       <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
+      <c r="M52" s="28">
+        <v>5</v>
+      </c>
       <c r="N52" s="28"/>
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
@@ -2656,7 +2752,9 @@
       <c r="J53" s="48"/>
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
+      <c r="M53" s="28">
+        <v>10</v>
+      </c>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
@@ -2674,7 +2772,9 @@
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="23">
+        <v>90</v>
+      </c>
       <c r="D54" s="23"/>
       <c r="E54" s="46"/>
       <c r="F54" s="25"/>
@@ -2875,7 +2975,9 @@
       <c r="B62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="23">
+        <v>110</v>
+      </c>
       <c r="D62" s="23"/>
       <c r="E62" s="46"/>
       <c r="F62" s="25"/>
@@ -2904,7 +3006,9 @@
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="23">
+        <v>120</v>
+      </c>
       <c r="D63" s="23"/>
       <c r="E63" s="46"/>
       <c r="F63" s="25"/>
@@ -2933,7 +3037,9 @@
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="23">
+        <v>130</v>
+      </c>
       <c r="D64" s="23"/>
       <c r="E64" s="46"/>
       <c r="F64" s="25"/>
@@ -2962,7 +3068,9 @@
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="23"/>
+      <c r="C65" s="23">
+        <v>140</v>
+      </c>
       <c r="D65" s="23"/>
       <c r="E65" s="46"/>
       <c r="F65" s="25"/>
@@ -2991,7 +3099,9 @@
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="23"/>
+      <c r="C66" s="23">
+        <v>150</v>
+      </c>
       <c r="D66" s="23"/>
       <c r="E66" s="46"/>
       <c r="F66" s="25"/>
@@ -3030,7 +3140,9 @@
       <c r="J67" s="48"/>
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
+      <c r="M67" s="28">
+        <v>160</v>
+      </c>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
@@ -3059,7 +3171,9 @@
       <c r="J68" s="48"/>
       <c r="K68" s="28"/>
       <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
+      <c r="M68" s="28">
+        <v>170</v>
+      </c>
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
@@ -3078,7 +3192,9 @@
       <c r="B69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="23"/>
+      <c r="C69" s="23">
+        <v>20</v>
+      </c>
       <c r="D69" s="23"/>
       <c r="E69" s="46"/>
       <c r="F69" s="25"/>
@@ -3107,7 +3223,9 @@
       <c r="B70" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="23">
+        <v>30</v>
+      </c>
       <c r="D70" s="23"/>
       <c r="E70" s="46"/>
       <c r="F70" s="25"/>
@@ -3491,7 +3609,9 @@
       <c r="B85" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="23"/>
+      <c r="C85" s="23">
+        <v>25</v>
+      </c>
       <c r="D85" s="23"/>
       <c r="E85" s="46"/>
       <c r="F85" s="25"/>
@@ -3520,7 +3640,9 @@
       <c r="B86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="23"/>
+      <c r="C86" s="23">
+        <v>26</v>
+      </c>
       <c r="D86" s="23"/>
       <c r="E86" s="46"/>
       <c r="F86" s="25"/>
@@ -3549,7 +3671,9 @@
       <c r="B87" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="23"/>
+      <c r="C87" s="23">
+        <v>27</v>
+      </c>
       <c r="D87" s="23"/>
       <c r="E87" s="46"/>
       <c r="F87" s="25"/>
@@ -3578,7 +3702,9 @@
       <c r="B88" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="23"/>
+      <c r="C88" s="23">
+        <v>28</v>
+      </c>
       <c r="D88" s="23"/>
       <c r="E88" s="46"/>
       <c r="F88" s="25"/>
@@ -3607,7 +3733,9 @@
       <c r="B89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="23"/>
+      <c r="C89" s="23">
+        <v>30</v>
+      </c>
       <c r="D89" s="23"/>
       <c r="E89" s="46"/>
       <c r="F89" s="25"/>
@@ -3636,7 +3764,9 @@
       <c r="B90" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="23"/>
+      <c r="C90" s="23">
+        <v>50</v>
+      </c>
       <c r="D90" s="23"/>
       <c r="E90" s="46"/>
       <c r="F90" s="25"/>
@@ -3665,7 +3795,9 @@
       <c r="B91" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="23"/>
+      <c r="C91" s="23">
+        <v>60</v>
+      </c>
       <c r="D91" s="23"/>
       <c r="E91" s="46"/>
       <c r="F91" s="25"/>
@@ -3694,7 +3826,9 @@
       <c r="B92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="23"/>
+      <c r="C92" s="23">
+        <v>70</v>
+      </c>
       <c r="D92" s="23"/>
       <c r="E92" s="46"/>
       <c r="F92" s="25"/>
@@ -3728,7 +3862,9 @@
       <c r="E93" s="46"/>
       <c r="F93" s="25"/>
       <c r="G93" s="47"/>
-      <c r="H93" s="48"/>
+      <c r="H93" s="48">
+        <v>200</v>
+      </c>
       <c r="I93" s="48"/>
       <c r="J93" s="48"/>
       <c r="K93" s="28"/>
@@ -4135,7 +4271,9 @@
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" s="23">
+        <v>50</v>
+      </c>
       <c r="D110" s="23"/>
       <c r="E110" s="46"/>
       <c r="F110" s="25"/>
@@ -4154,7 +4292,9 @@
       <c r="S110" s="28"/>
       <c r="T110" s="28"/>
       <c r="U110" s="28"/>
-      <c r="V110" s="28"/>
+      <c r="V110" s="28">
+        <v>23</v>
+      </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
@@ -4164,7 +4304,9 @@
       <c r="B111" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="23">
+        <v>1000</v>
+      </c>
       <c r="D111" s="23"/>
       <c r="E111" s="46"/>
       <c r="F111" s="25"/>
@@ -4183,7 +4325,9 @@
       <c r="S111" s="28"/>
       <c r="T111" s="28"/>
       <c r="U111" s="28"/>
-      <c r="V111" s="28"/>
+      <c r="V111" s="28">
+        <v>24</v>
+      </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
@@ -4193,7 +4337,9 @@
       <c r="B112" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="23"/>
+      <c r="C112" s="23">
+        <v>2000</v>
+      </c>
       <c r="D112" s="23"/>
       <c r="E112" s="46"/>
       <c r="F112" s="25"/>
@@ -4212,7 +4358,9 @@
       <c r="S112" s="28"/>
       <c r="T112" s="28"/>
       <c r="U112" s="28"/>
-      <c r="V112" s="28"/>
+      <c r="V112" s="28">
+        <v>25</v>
+      </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
@@ -4308,17 +4456,17 @@
       <c r="U117" s="4"/>
       <c r="V117" s="17">
         <f>SUM(V3:V96)</f>
-        <v>0</v>
-      </c>
-      <c r="W117" s="52">
+        <v>736</v>
+      </c>
+      <c r="W117" s="55">
         <f>SUM(C3:U96)+SUM(V3:V96)</f>
-        <v>0</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="4">
         <f>SUM(C3:C96)</f>
-        <v>0</v>
+        <v>5156</v>
       </c>
       <c r="D118" s="4">
         <f>SUM(D3:D96)</f>
@@ -4326,7 +4474,7 @@
       </c>
       <c r="E118" s="4">
         <f>SUM(E3:E96)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F118" s="4">
         <f>SUM(F3:F96)</f>
@@ -4338,7 +4486,7 @@
       </c>
       <c r="H118" s="4">
         <f>SUM(H3:H96)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" si="5"/>
@@ -4354,11 +4502,11 @@
       </c>
       <c r="L118" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M118" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="N118" s="4">
         <f t="shared" si="5"/>
@@ -4366,7 +4514,7 @@
       </c>
       <c r="O118" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P118" s="4">
         <f t="shared" si="5"/>
@@ -4394,14 +4542,14 @@
       </c>
       <c r="V118" s="17">
         <f>SUM(C118:U118)</f>
-        <v>0</v>
-      </c>
-      <c r="W118" s="53"/>
+        <v>6494</v>
+      </c>
+      <c r="W118" s="56"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V119" s="16">
         <f>SUM(C3:U96)</f>
-        <v>0</v>
+        <v>6494</v>
       </c>
     </row>
   </sheetData>
